--- a/metadata/rlc_metadata_06192024.xlsx
+++ b/metadata/rlc_metadata_06192024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssdon\OneDrive\Documents\github\anemone-leachate-heat\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA7D676-5D63-47D7-BACD-42B2FB6D62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90EA3FF-82D8-4B5E-ACAE-B2146E26997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>H2H</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>A. elegantissima x B. muscatinei</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -576,7 +582,7 @@
     <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +607,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>14</v>
       </c>
@@ -624,8 +633,11 @@
       <c r="G2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>27</v>
       </c>
@@ -647,8 +659,11 @@
       <c r="G3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>40</v>
       </c>
@@ -670,8 +685,11 @@
       <c r="G4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>53</v>
       </c>
@@ -693,8 +711,11 @@
       <c r="G5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>66</v>
       </c>
@@ -716,8 +737,11 @@
       <c r="G6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>92</v>
       </c>
@@ -739,8 +763,11 @@
       <c r="G7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>105</v>
       </c>
@@ -762,8 +789,11 @@
       <c r="G8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>118</v>
       </c>
@@ -785,8 +815,11 @@
       <c r="G9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>131</v>
       </c>
@@ -808,8 +841,11 @@
       <c r="G10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>144</v>
       </c>
@@ -831,8 +867,11 @@
       <c r="G11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>157</v>
       </c>
@@ -857,8 +896,11 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>170</v>
       </c>
@@ -880,8 +922,11 @@
       <c r="G13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>183</v>
       </c>
@@ -903,8 +948,11 @@
       <c r="G14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>196</v>
       </c>
@@ -926,8 +974,11 @@
       <c r="G15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>209</v>
       </c>
@@ -949,8 +1000,11 @@
       <c r="G16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>222</v>
       </c>
@@ -972,8 +1026,11 @@
       <c r="G17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>235</v>
       </c>
@@ -998,8 +1055,11 @@
       <c r="H18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>248</v>
       </c>
@@ -1021,8 +1081,11 @@
       <c r="G19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>261</v>
       </c>
@@ -1044,8 +1107,11 @@
       <c r="G20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>274</v>
       </c>
@@ -1067,8 +1133,11 @@
       <c r="G21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>287</v>
       </c>
@@ -1090,8 +1159,11 @@
       <c r="G22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>300</v>
       </c>
@@ -1113,8 +1185,11 @@
       <c r="G23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>313</v>
       </c>
@@ -1136,8 +1211,11 @@
       <c r="G24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>326</v>
       </c>
@@ -1159,8 +1237,11 @@
       <c r="G25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>339</v>
       </c>
@@ -1182,8 +1263,11 @@
       <c r="G26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>352</v>
       </c>
@@ -1205,8 +1289,11 @@
       <c r="G27" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>365</v>
       </c>
@@ -1228,8 +1315,11 @@
       <c r="G28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>378</v>
       </c>
@@ -1251,8 +1341,11 @@
       <c r="G29" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>391</v>
       </c>
@@ -1274,8 +1367,11 @@
       <c r="G30" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>404</v>
       </c>
@@ -1297,8 +1393,11 @@
       <c r="G31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>417</v>
       </c>
@@ -1320,8 +1419,11 @@
       <c r="G32" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>430</v>
       </c>
@@ -1343,8 +1445,11 @@
       <c r="G33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>443</v>
       </c>
@@ -1366,8 +1471,11 @@
       <c r="G34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>456</v>
       </c>
@@ -1389,8 +1497,11 @@
       <c r="G35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>469</v>
       </c>
@@ -1412,8 +1523,11 @@
       <c r="G36" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>482</v>
       </c>
@@ -1435,8 +1549,11 @@
       <c r="G37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>495</v>
       </c>
@@ -1458,8 +1575,11 @@
       <c r="G38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>508</v>
       </c>
@@ -1481,8 +1601,11 @@
       <c r="G39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>521</v>
       </c>
@@ -1504,8 +1627,11 @@
       <c r="G40" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>534</v>
       </c>
@@ -1527,8 +1653,11 @@
       <c r="G41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>547</v>
       </c>
@@ -1550,8 +1679,11 @@
       <c r="G42" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>560</v>
       </c>
@@ -1573,8 +1705,11 @@
       <c r="G43" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>573</v>
       </c>
@@ -1596,8 +1731,11 @@
       <c r="G44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>599</v>
       </c>
@@ -1619,8 +1757,11 @@
       <c r="G45" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>612</v>
       </c>
@@ -1642,8 +1783,11 @@
       <c r="G46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>625</v>
       </c>
@@ -1665,8 +1809,11 @@
       <c r="G47" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>638</v>
       </c>
@@ -1688,8 +1835,11 @@
       <c r="G48" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>651</v>
       </c>
@@ -1711,8 +1861,11 @@
       <c r="G49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>664</v>
       </c>
@@ -1734,8 +1887,11 @@
       <c r="G50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>677</v>
       </c>
@@ -1757,8 +1913,11 @@
       <c r="G51" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>690</v>
       </c>
@@ -1780,8 +1939,11 @@
       <c r="G52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>703</v>
       </c>
@@ -1803,8 +1965,11 @@
       <c r="G53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>716</v>
       </c>
@@ -1826,8 +1991,11 @@
       <c r="G54" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>729</v>
       </c>
@@ -1849,8 +2017,11 @@
       <c r="G55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>742</v>
       </c>
@@ -1872,8 +2043,11 @@
       <c r="G56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>755</v>
       </c>
@@ -1895,8 +2069,11 @@
       <c r="G57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>768</v>
       </c>
@@ -1918,8 +2095,11 @@
       <c r="G58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>781</v>
       </c>
@@ -1941,8 +2121,11 @@
       <c r="G59" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>794</v>
       </c>
@@ -1964,8 +2147,11 @@
       <c r="G60" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>807</v>
       </c>
@@ -1986,6 +2172,9 @@
       </c>
       <c r="G61" t="s">
         <v>72</v>
+      </c>
+      <c r="I61" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
